--- a/utilities/example/excel/sample.xlsx
+++ b/utilities/example/excel/sample.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dung\webdriverIOv5\utilities\example\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8734CEC7-A292-4635-BAD8-8DAB42BB35E9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="16280" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>emp_id</t>
   </si>
@@ -80,12 +86,24 @@
   </si>
   <si>
     <t>near school</t>
+  </si>
+  <si>
+    <t>66 xyz</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>HCM</t>
+  </si>
+  <si>
+    <t>VN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -155,6 +173,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -479,16 +505,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,7 +525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>101</v>
       </c>
@@ -510,7 +536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>102</v>
       </c>
@@ -521,7 +547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>103</v>
       </c>
@@ -543,19 +569,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -572,7 +598,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -589,7 +615,7 @@
         <v>95089</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -604,6 +630,23 @@
       </c>
       <c r="E3">
         <v>62289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>123456</v>
       </c>
     </row>
   </sheetData>
